--- a/results/multiclass/1466/automl.xlsx
+++ b/results/multiclass/1466/automl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,25 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_average_precision_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_loss</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>training_time</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>test_time</t>
         </is>
@@ -568,10 +583,25 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>00:00:13</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -585,7 +615,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.998</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -595,32 +625,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.999</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.997</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.999</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.998</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.998</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.997</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -640,10 +670,25 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>00:01:23</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>00:01:25</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>00:00:01</t>
         </is>
@@ -712,12 +757,27 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>00:10:28</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>00:02:41</t>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>00:17:44</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>00:03:27</t>
         </is>
       </c>
     </row>
@@ -784,10 +844,25 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>00:10:20</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>00:10:06</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>00:00:02</t>
         </is>
@@ -856,10 +931,25 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>00:10:02</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -928,10 +1018,25 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>00:09:59</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1000,10 +1105,25 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>00:08:59</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1017,7 +1137,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>0.906</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1027,27 +1147,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.883</t>
+          <t>0.888</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.647</t>
+          <t>0.742</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>0.906</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.878</t>
+          <t>0.891</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1072,10 +1192,25 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>00:10:06</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>00:10:05</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1144,10 +1279,25 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>00:00:26</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1216,10 +1366,25 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>00:13:09</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>00:12:53</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>

--- a/results/multiclass/1466/automl.xlsx
+++ b/results/multiclass/1466/automl.xlsx
@@ -924,7 +924,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:09:37 (00:10:09 Â± 00:00:22)</t>
+          <t>00:00:54 (00:00:55 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">

--- a/results/multiclass/1466/automl.xlsx
+++ b/results/multiclass/1466/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:04:49 (00:05:20 Â± 00:00:23)</t>
+          <t>00:04:49 (00:05:20 ± 00:00:23)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:05 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:05 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.000 (0.997 Â± 0.003)</t>
+          <t>1.000 (0.997 ± 0.003)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:23 (00:00:25 Â± 00:00:01)</t>
+          <t>00:00:23 (00:00:25 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.001)</t>
+          <t>1.000 (1.000 ± 0.001)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:01:03 (00:01:23 Â± 00:00:15)</t>
+          <t>00:01:03 (00:01:23 ± 00:00:15)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:04 (00:05:12 Â± 00:00:03)</t>
+          <t>00:05:04 (00:05:12 ± 00:00:03)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:58 (00:05:02 Â± 00:00:02)</t>
+          <t>00:04:58 (00:05:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:03 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:03 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,17 +631,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:01 Â± 00:00:01)</t>
+          <t>00:05:00 (00:05:01 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -663,17 +663,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.002)</t>
+          <t>1.000 (1.000 ± 0.002)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:04:45 (00:07:12 Â± 00:02:36)</t>
+          <t>00:04:45 (00:07:12 ± 00:02:36)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -695,17 +695,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:04:59 Â± 00:00:00)</t>
+          <t>00:04:59 (00:04:59 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.000 (0.999 Â± 0.002)</t>
+          <t>1.000 (0.999 ± 0.002)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.915 (0.706 Â± 0.214)</t>
+          <t>0.915 (0.706 ± 0.214)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:06 Â± 00:00:01)</t>
+          <t>00:05:05 (00:05:06 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -791,17 +791,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.150 (0.104 Â± 0.022)</t>
+          <t>0.150 (0.104 ± 0.022)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:02:44 (00:02:51 Â± 00:00:04)</t>
+          <t>00:02:44 (00:02:51 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -823,17 +823,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.601 (0.561 Â± 0.027)</t>
+          <t>0.601 (0.561 ± 0.027)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:03 (00:00:07 Â± 00:00:02)</t>
+          <t>00:00:03 (00:00:07 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:56 (00:00:59 Â± 00:00:01)</t>
+          <t>00:00:56 (00:00:59 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -887,17 +887,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:01:08 (00:01:14 Â± 00:00:08)</t>
+          <t>00:01:08 (00:01:14 ± 00:00:08)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -919,17 +919,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.000 (0.999 Â± 0.002)</t>
+          <t>1.000 (0.999 ± 0.002)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00:54 (00:00:55 Â± 00:00:00)</t>
+          <t>00:00:54 (00:00:55 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -951,17 +951,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.000 (0.983 Â± 0.076)</t>
+          <t>1.000 (0.983 ± 0.076)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:19 Â± 00:00:13)</t>
+          <t>00:05:01 (00:05:19 ± 00:00:13)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
